--- a/Example Excel/2020年三季度.xlsx
+++ b/Example Excel/2020年三季度.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suoweihu/Documents/GitHub/Excel-Online-App/src/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suoweihu/Documents/GitHub/Excel-Online-App/Example Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB0FC9-A1DF-DF42-A2C6-FCCAC6CE6A50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED834AA8-15C0-5843-85D3-1CB75DAAB134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="5140" windowWidth="23940" windowHeight="10340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>行号</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>2020.02.11 11:00:25</t>
+  </si>
+  <si>
+    <t>小C</t>
+  </si>
+  <si>
+    <t>XXXX 2</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -112,12 +121,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -126,7 +150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,6 +159,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,7 +441,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -431,146 +458,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>733101</v>
       </c>
-      <c r="B2" s="1">
-        <v>213123</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3">
+        <v>321</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>733121</v>
+      </c>
+      <c r="B3" s="3">
+        <v>123123</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>733121</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3">
+        <v>321</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>733131</v>
+      </c>
+      <c r="B4" s="3">
         <v>123123</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3">
+        <v>123</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>733141</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>733151</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1231231</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1">
-        <v>321</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>733131</v>
-      </c>
-      <c r="B4" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1">
-        <v>123</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>733141</v>
-      </c>
-      <c r="B5" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>733151</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1231231</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="3">
+        <v>213</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Example Excel/2020年三季度.xlsx
+++ b/Example Excel/2020年三季度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suoweihu/Documents/GitHub/Excel-Online-App/Example Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED834AA8-15C0-5843-85D3-1CB75DAAB134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8908B3D3-3F19-D244-92BD-CDB4270929FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="5140" windowWidth="23940" windowHeight="10340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
   <si>
     <t>行号</t>
   </si>
@@ -98,16 +98,61 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>col_1</t>
+  </si>
+  <si>
+    <t>col_2</t>
+  </si>
+  <si>
+    <t>col_3</t>
+  </si>
+  <si>
+    <t>col_4</t>
+  </si>
+  <si>
+    <t>col_5</t>
+  </si>
+  <si>
+    <t>col_6</t>
+  </si>
+  <si>
+    <t>col_7</t>
+  </si>
+  <si>
+    <t>col_8</t>
+  </si>
+  <si>
+    <t>col_9</t>
+  </si>
+  <si>
+    <t>col_10</t>
+  </si>
+  <si>
+    <t>col_11</t>
+  </si>
+  <si>
+    <t>col_12</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,26 +483,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="8.83203125" style="1"/>
-    <col min="10" max="10" width="22.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" style="1"/>
-    <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="24.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.83203125" style="1"/>
-    <col min="16" max="16" width="21.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -482,10 +527,44 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>733101</v>
       </c>
@@ -508,14 +587,50 @@
       <c r="H2" s="3">
         <v>321</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>733121</v>
       </c>
@@ -540,14 +655,50 @@
       <c r="H3" s="3">
         <v>321</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>733131</v>
       </c>
@@ -572,14 +723,50 @@
       <c r="H4" s="3">
         <v>123</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>733141</v>
       </c>
@@ -590,10 +777,10 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>733151</v>
       </c>
@@ -618,14 +805,50 @@
       <c r="H6" s="3">
         <v>213</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -644,7 +867,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -663,7 +886,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -682,7 +905,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -701,7 +924,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -720,7 +943,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -739,7 +962,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -758,7 +981,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -777,7 +1000,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -796,7 +1019,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -816,6 +1039,7 @@
       <c r="Q16" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
